--- a/data/Game/SpawnList.xlsx
+++ b/data/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon_forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_machine</t>
   </si>
   <si>
     <t xml:space="preserve">c_sand</t>
@@ -296,7 +302,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3"/>
     </row>
@@ -305,7 +311,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4"/>
     </row>
@@ -314,7 +320,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5"/>
     </row>
@@ -323,7 +329,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6"/>
     </row>
@@ -332,7 +338,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7"/>
     </row>
@@ -341,7 +347,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8"/>
     </row>
@@ -350,7 +356,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9"/>
     </row>
@@ -359,7 +365,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10"/>
     </row>
@@ -368,7 +374,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11"/>
     </row>
@@ -377,7 +383,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12"/>
     </row>
@@ -386,7 +392,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C13"/>
     </row>
@@ -395,7 +401,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C14"/>
     </row>
@@ -404,7 +410,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15"/>
     </row>
@@ -413,7 +419,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16"/>
     </row>
@@ -422,7 +428,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C17"/>
     </row>
@@ -431,7 +437,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18"/>
     </row>
@@ -440,7 +446,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19"/>
     </row>
@@ -449,7 +455,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C20"/>
     </row>
@@ -458,7 +464,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C21"/>
     </row>
@@ -467,7 +473,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22"/>
     </row>
@@ -476,7 +482,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23"/>
     </row>
@@ -485,7 +491,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24"/>
     </row>
@@ -494,7 +500,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25"/>
     </row>
@@ -503,7 +509,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C26"/>
     </row>
@@ -512,7 +518,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27"/>
     </row>
@@ -521,7 +527,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28"/>
     </row>
@@ -530,7 +536,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29"/>
     </row>
@@ -539,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C30"/>
     </row>
@@ -548,7 +554,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C31"/>
     </row>
@@ -557,7 +563,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32"/>
     </row>
@@ -566,7 +572,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C33"/>
     </row>
@@ -575,7 +581,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34"/>
     </row>
@@ -584,7 +590,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35"/>
     </row>
@@ -593,7 +599,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36"/>
     </row>
@@ -602,34 +608,34 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40"/>
     </row>
@@ -638,7 +644,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C41"/>
     </row>
@@ -647,7 +653,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42"/>
     </row>
@@ -656,7 +662,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43"/>
     </row>
@@ -665,7 +671,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44"/>
     </row>
@@ -674,7 +680,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C45"/>
     </row>
@@ -683,7 +689,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C46"/>
     </row>
@@ -692,9 +698,27 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2"/>
